--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl12-Ccr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl12-Ccr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,10 +543,10 @@
         <v>0.846464</v>
       </c>
       <c r="I2">
-        <v>0.003251136722938652</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="J2">
-        <v>0.003251136722938651</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,10 +561,10 @@
         <v>0.26459</v>
       </c>
       <c r="O2">
-        <v>0.1669420747153959</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.1669420747153959</v>
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>0.02488510108444444</v>
@@ -576,15 +573,15 @@
         <v>0.22396590976</v>
       </c>
       <c r="S2">
-        <v>0.0005427515097107918</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="T2">
-        <v>0.0005427515097107916</v>
+        <v>0.005723000769734084</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -593,25 +590,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2821546666666667</v>
+        <v>30.199365</v>
       </c>
       <c r="H3">
-        <v>0.846464</v>
+        <v>90.598095</v>
       </c>
       <c r="I3">
-        <v>0.003251136722938652</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="J3">
-        <v>0.003251136722938651</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,33 +617,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.4401103333333333</v>
+        <v>0.08819666666666666</v>
       </c>
       <c r="N3">
-        <v>1.320331</v>
+        <v>0.26459</v>
       </c>
       <c r="O3">
-        <v>0.8330579252846041</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.833057925284604</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.1241791843982222</v>
+        <v>2.66348332845</v>
       </c>
       <c r="R3">
-        <v>1.117612659584</v>
+        <v>23.97134995605</v>
       </c>
       <c r="S3">
-        <v>0.00270838521322786</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="T3">
-        <v>0.002708385213227859</v>
+        <v>0.6125398923302606</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -664,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.96940366666666</v>
+        <v>18.820355</v>
       </c>
       <c r="H4">
-        <v>167.908211</v>
+        <v>56.461065</v>
       </c>
       <c r="I4">
-        <v>0.6449093533393406</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="J4">
-        <v>0.6449093533393405</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,208 +685,22 @@
         <v>0.26459</v>
       </c>
       <c r="O4">
-        <v>0.1669420747153959</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.1669420747153959</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>4.936314838721111</v>
+        <v>1.659892576483333</v>
       </c>
       <c r="R4">
-        <v>44.42683354848999</v>
+        <v>14.93903318835</v>
       </c>
       <c r="S4">
-        <v>0.1076625054498339</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="T4">
-        <v>0.1076625054498338</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>55.96940366666666</v>
-      </c>
-      <c r="H5">
-        <v>167.908211</v>
-      </c>
-      <c r="I5">
-        <v>0.6449093533393406</v>
-      </c>
-      <c r="J5">
-        <v>0.6449093533393405</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.4401103333333333</v>
-      </c>
-      <c r="N5">
-        <v>1.320331</v>
-      </c>
-      <c r="O5">
-        <v>0.8330579252846041</v>
-      </c>
-      <c r="P5">
-        <v>0.833057925284604</v>
-      </c>
-      <c r="Q5">
-        <v>24.63271290420455</v>
-      </c>
-      <c r="R5">
-        <v>221.694416137841</v>
-      </c>
-      <c r="S5">
-        <v>0.5372468478895067</v>
-      </c>
-      <c r="T5">
-        <v>0.5372468478895066</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>30.53490766666667</v>
-      </c>
-      <c r="H6">
-        <v>91.60472300000001</v>
-      </c>
-      <c r="I6">
-        <v>0.3518395099377208</v>
-      </c>
-      <c r="J6">
-        <v>0.3518395099377208</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.08819666666666666</v>
-      </c>
-      <c r="N6">
-        <v>0.26459</v>
-      </c>
-      <c r="O6">
-        <v>0.1669420747153959</v>
-      </c>
-      <c r="P6">
-        <v>0.1669420747153959</v>
-      </c>
-      <c r="Q6">
-        <v>2.693077073174444</v>
-      </c>
-      <c r="R6">
-        <v>24.23769365857</v>
-      </c>
-      <c r="S6">
-        <v>0.05873681775585127</v>
-      </c>
-      <c r="T6">
-        <v>0.05873681775585126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>30.53490766666667</v>
-      </c>
-      <c r="H7">
-        <v>91.60472300000001</v>
-      </c>
-      <c r="I7">
-        <v>0.3518395099377208</v>
-      </c>
-      <c r="J7">
-        <v>0.3518395099377208</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.4401103333333333</v>
-      </c>
-      <c r="N7">
-        <v>1.320331</v>
-      </c>
-      <c r="O7">
-        <v>0.8330579252846041</v>
-      </c>
-      <c r="P7">
-        <v>0.833057925284604</v>
-      </c>
-      <c r="Q7">
-        <v>13.43872839147922</v>
-      </c>
-      <c r="R7">
-        <v>120.948555523313</v>
-      </c>
-      <c r="S7">
-        <v>0.2931026921818696</v>
-      </c>
-      <c r="T7">
-        <v>0.2931026921818695</v>
+        <v>0.3817371069000054</v>
       </c>
     </row>
   </sheetData>
